--- a/result.xlsx
+++ b/result.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morishita/Dropbox/study_share/cloud_Aso/code/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12220" yWindow="0" windowWidth="14080" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="11480" yWindow="460" windowWidth="14080" windowHeight="14740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="result.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="17">
   <si>
     <t>st1</t>
   </si>
@@ -58,6 +64,38 @@
   </si>
   <si>
     <t>st3</t>
+  </si>
+  <si>
+    <t>森下の主観による、見事な雲海判定</t>
+    <rPh sb="0" eb="2">
+      <t>モリシタノシュカンニヨル</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミゴトナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ウンカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://twitter.com/unkaitter/media</t>
+  </si>
+  <si>
+    <t>https://twitter.com/unkaitterbot</t>
+  </si>
+  <si>
+    <t>機械学習器の結果</t>
+    <rPh sb="0" eb="5">
+      <t>キカイガクシュウキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -124,18 +162,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -158,6 +217,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -483,18 +547,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B199" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>40719</v>
       </c>
@@ -516,8 +580,11 @@
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19">
+      <c r="H1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>40719</v>
       </c>
@@ -539,8 +606,11 @@
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="19">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>40719</v>
       </c>
@@ -562,8 +632,11 @@
       <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="19">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>40719</v>
       </c>
@@ -585,8 +658,11 @@
       <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="19">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>40719</v>
       </c>
@@ -608,8 +684,11 @@
       <c r="G5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="19">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>40720</v>
       </c>
@@ -631,8 +710,11 @@
       <c r="G6" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="19">
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>40720</v>
       </c>
@@ -654,8 +736,11 @@
       <c r="G7" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="19">
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>40720</v>
       </c>
@@ -677,8 +762,11 @@
       <c r="G8" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="19">
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>40720</v>
       </c>
@@ -700,8 +788,11 @@
       <c r="G9" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="19">
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>40720</v>
       </c>
@@ -723,8 +814,11 @@
       <c r="G10" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="19">
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>40721</v>
       </c>
@@ -746,8 +840,11 @@
       <c r="G11" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="19">
+      <c r="H11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>40721</v>
       </c>
@@ -769,8 +866,11 @@
       <c r="G12" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="19">
+      <c r="H12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>40721</v>
       </c>
@@ -792,8 +892,11 @@
       <c r="G13" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="19">
+      <c r="H13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>40721</v>
       </c>
@@ -815,8 +918,11 @@
       <c r="G14" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="19">
+      <c r="H14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>40721</v>
       </c>
@@ -838,8 +944,11 @@
       <c r="G15" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="19">
+      <c r="H15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>40722</v>
       </c>
@@ -861,8 +970,11 @@
       <c r="G16" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="19">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>40722</v>
       </c>
@@ -884,8 +996,11 @@
       <c r="G17" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="19">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>40722</v>
       </c>
@@ -907,8 +1022,11 @@
       <c r="G18" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="19">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>40722</v>
       </c>
@@ -930,8 +1048,11 @@
       <c r="G19" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="19">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>40722</v>
       </c>
@@ -953,8 +1074,11 @@
       <c r="G20" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="19">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>40723</v>
       </c>
@@ -976,8 +1100,11 @@
       <c r="G21" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="19">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>40723</v>
       </c>
@@ -999,8 +1126,11 @@
       <c r="G22" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="19">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>40723</v>
       </c>
@@ -1022,8 +1152,11 @@
       <c r="G23" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="19">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>40723</v>
       </c>
@@ -1045,8 +1178,11 @@
       <c r="G24" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="19">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>40723</v>
       </c>
@@ -1068,8 +1204,11 @@
       <c r="G25" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="19">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>40724</v>
       </c>
@@ -1091,8 +1230,11 @@
       <c r="G26" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="19">
+      <c r="H26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>40724</v>
       </c>
@@ -1114,8 +1256,11 @@
       <c r="G27" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="19">
+      <c r="H27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>40724</v>
       </c>
@@ -1137,8 +1282,11 @@
       <c r="G28" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="19">
+      <c r="H28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>40724</v>
       </c>
@@ -1160,8 +1308,11 @@
       <c r="G29" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="19">
+      <c r="H29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>40724</v>
       </c>
@@ -1183,8 +1334,11 @@
       <c r="G30" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="19">
+      <c r="H30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>40725</v>
       </c>
@@ -1206,8 +1360,11 @@
       <c r="G31" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="19">
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>40725</v>
       </c>
@@ -1229,8 +1386,11 @@
       <c r="G32" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="19">
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>40725</v>
       </c>
@@ -1252,8 +1412,11 @@
       <c r="G33" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="19">
+      <c r="H33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>40725</v>
       </c>
@@ -1275,8 +1438,11 @@
       <c r="G34" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="19">
+      <c r="H34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>40725</v>
       </c>
@@ -1298,8 +1464,11 @@
       <c r="G35" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>40726</v>
       </c>
@@ -1321,8 +1490,11 @@
       <c r="G36" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>40726</v>
       </c>
@@ -1344,8 +1516,11 @@
       <c r="G37" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="19">
+      <c r="H37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>40726</v>
       </c>
@@ -1367,8 +1542,11 @@
       <c r="G38" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="19">
+      <c r="H38">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>40726</v>
       </c>
@@ -1390,8 +1568,11 @@
       <c r="G39" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="19">
+      <c r="H39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40726</v>
       </c>
@@ -1413,8 +1594,11 @@
       <c r="G40" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="19">
+      <c r="H40">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40727</v>
       </c>
@@ -1436,8 +1620,11 @@
       <c r="G41" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="19">
+      <c r="H41">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40727</v>
       </c>
@@ -1459,8 +1646,11 @@
       <c r="G42" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="19">
+      <c r="H42">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40727</v>
       </c>
@@ -1482,8 +1672,11 @@
       <c r="G43" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="19">
+      <c r="H43">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>40727</v>
       </c>
@@ -1505,8 +1698,11 @@
       <c r="G44" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="19">
+      <c r="H44">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>40727</v>
       </c>
@@ -1528,8 +1724,11 @@
       <c r="G45" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="19">
+      <c r="H45">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>40728</v>
       </c>
@@ -1551,8 +1750,11 @@
       <c r="G46" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="19">
+      <c r="H46">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>40728</v>
       </c>
@@ -1574,8 +1776,11 @@
       <c r="G47" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="19">
+      <c r="H47">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>40728</v>
       </c>
@@ -1597,8 +1802,11 @@
       <c r="G48" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="19">
+      <c r="H48">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>40728</v>
       </c>
@@ -1620,8 +1828,11 @@
       <c r="G49" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="19">
+      <c r="H49">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>40728</v>
       </c>
@@ -1643,8 +1854,11 @@
       <c r="G50" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="19">
+      <c r="H50">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>40729</v>
       </c>
@@ -1666,8 +1880,11 @@
       <c r="G51" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="19">
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>40729</v>
       </c>
@@ -1689,8 +1906,11 @@
       <c r="G52" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>40729</v>
       </c>
@@ -1710,8 +1930,11 @@
       <c r="G53" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>40729</v>
       </c>
@@ -1731,8 +1954,11 @@
       <c r="G54" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>40729</v>
       </c>
@@ -1752,8 +1978,11 @@
       <c r="G55" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="19">
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>40730</v>
       </c>
@@ -1775,8 +2004,11 @@
       <c r="G56" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="19">
+      <c r="H56">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>40730</v>
       </c>
@@ -1798,8 +2030,11 @@
       <c r="G57" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="19">
+      <c r="H57">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>40730</v>
       </c>
@@ -1821,8 +2056,11 @@
       <c r="G58" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="19">
+      <c r="H58">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>40730</v>
       </c>
@@ -1844,8 +2082,11 @@
       <c r="G59" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="19">
+      <c r="H59">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>40730</v>
       </c>
@@ -1867,8 +2108,11 @@
       <c r="G60" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>40731</v>
       </c>
@@ -1888,8 +2132,11 @@
       <c r="G61" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>40731</v>
       </c>
@@ -1909,8 +2156,11 @@
       <c r="G62" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>40731</v>
       </c>
@@ -1930,8 +2180,11 @@
       <c r="G63" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>40731</v>
       </c>
@@ -1951,8 +2204,11 @@
       <c r="G64" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>40731</v>
       </c>
@@ -1972,8 +2228,11 @@
       <c r="G65" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>40732</v>
       </c>
@@ -1993,8 +2252,11 @@
       <c r="G66" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>40732</v>
       </c>
@@ -2014,8 +2276,11 @@
       <c r="G67" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>40732</v>
       </c>
@@ -2035,8 +2300,11 @@
       <c r="G68" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>40732</v>
       </c>
@@ -2056,8 +2324,11 @@
       <c r="G69" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>40732</v>
       </c>
@@ -2077,8 +2348,11 @@
       <c r="G70" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="19">
+      <c r="H70">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>40733</v>
       </c>
@@ -2100,8 +2374,11 @@
       <c r="G71" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="19">
+      <c r="H71">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>40733</v>
       </c>
@@ -2123,8 +2400,11 @@
       <c r="G72" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>40733</v>
       </c>
@@ -2144,8 +2424,11 @@
       <c r="G73" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>40733</v>
       </c>
@@ -2165,8 +2448,11 @@
       <c r="G74" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>40733</v>
       </c>
@@ -2186,8 +2472,11 @@
       <c r="G75" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>40734</v>
       </c>
@@ -2207,8 +2496,11 @@
       <c r="G76" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>40734</v>
       </c>
@@ -2228,8 +2520,11 @@
       <c r="G77" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="19">
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>40734</v>
       </c>
@@ -2251,8 +2546,11 @@
       <c r="G78" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="19">
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>40734</v>
       </c>
@@ -2274,8 +2572,11 @@
       <c r="G79" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="19">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>40734</v>
       </c>
@@ -2297,8 +2598,11 @@
       <c r="G80" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>40735</v>
       </c>
@@ -2318,8 +2622,11 @@
       <c r="G81" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="19">
+      <c r="H81">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>40735</v>
       </c>
@@ -2341,8 +2648,11 @@
       <c r="G82" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>40735</v>
       </c>
@@ -2362,8 +2672,11 @@
       <c r="G83" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>40735</v>
       </c>
@@ -2383,8 +2696,11 @@
       <c r="G84" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>40735</v>
       </c>
@@ -2404,8 +2720,11 @@
       <c r="G85" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="19">
+      <c r="H85">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>40736</v>
       </c>
@@ -2427,8 +2746,11 @@
       <c r="G86" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="19">
+      <c r="H86">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>40736</v>
       </c>
@@ -2450,8 +2772,11 @@
       <c r="G87" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="19">
+      <c r="H87">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>40736</v>
       </c>
@@ -2473,8 +2798,11 @@
       <c r="G88" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="19">
+      <c r="H88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>40736</v>
       </c>
@@ -2496,8 +2824,11 @@
       <c r="G89" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="19">
+      <c r="H89">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>40736</v>
       </c>
@@ -2519,8 +2850,11 @@
       <c r="G90" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="19">
+      <c r="H90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>40737</v>
       </c>
@@ -2542,8 +2876,11 @@
       <c r="G91" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>40737</v>
       </c>
@@ -2563,8 +2900,11 @@
       <c r="G92" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>40737</v>
       </c>
@@ -2584,8 +2924,11 @@
       <c r="G93" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="19">
+      <c r="H93">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>40737</v>
       </c>
@@ -2607,8 +2950,11 @@
       <c r="G94" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>40737</v>
       </c>
@@ -2628,8 +2974,11 @@
       <c r="G95" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>40738</v>
       </c>
@@ -2649,8 +2998,11 @@
       <c r="G96" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>40738</v>
       </c>
@@ -2670,8 +3022,11 @@
       <c r="G97" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>40738</v>
       </c>
@@ -2691,8 +3046,11 @@
       <c r="G98" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>40738</v>
       </c>
@@ -2712,8 +3070,11 @@
       <c r="G99" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>40738</v>
       </c>
@@ -2733,8 +3094,11 @@
       <c r="G100" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>40739</v>
       </c>
@@ -2754,8 +3118,11 @@
       <c r="G101" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>40739</v>
       </c>
@@ -2775,8 +3142,11 @@
       <c r="G102" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="19">
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>40739</v>
       </c>
@@ -2798,8 +3168,11 @@
       <c r="G103" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="19">
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>40739</v>
       </c>
@@ -2821,8 +3194,11 @@
       <c r="G104" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="19">
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>40739</v>
       </c>
@@ -2844,8 +3220,11 @@
       <c r="G105" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="19">
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>40740</v>
       </c>
@@ -2867,8 +3246,11 @@
       <c r="G106" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="19">
+      <c r="H106">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>40740</v>
       </c>
@@ -2890,8 +3272,11 @@
       <c r="G107" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="19">
+      <c r="H107">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>40740</v>
       </c>
@@ -2913,8 +3298,11 @@
       <c r="G108" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="19">
+      <c r="H108">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>40740</v>
       </c>
@@ -2936,8 +3324,11 @@
       <c r="G109" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="19">
+      <c r="H109">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>40740</v>
       </c>
@@ -2959,8 +3350,11 @@
       <c r="G110" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="19">
+      <c r="H110">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>40741</v>
       </c>
@@ -2982,8 +3376,11 @@
       <c r="G111" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>40741</v>
       </c>
@@ -3003,8 +3400,11 @@
       <c r="G112" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>40741</v>
       </c>
@@ -3024,8 +3424,11 @@
       <c r="G113" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>40741</v>
       </c>
@@ -3045,8 +3448,11 @@
       <c r="G114" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>40741</v>
       </c>
@@ -3066,8 +3472,11 @@
       <c r="G115" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="19">
+      <c r="H115">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>40742</v>
       </c>
@@ -3089,8 +3498,11 @@
       <c r="G116" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="19">
+      <c r="H116">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>40742</v>
       </c>
@@ -3112,8 +3524,11 @@
       <c r="G117" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="19">
+      <c r="H117">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>40742</v>
       </c>
@@ -3135,8 +3550,11 @@
       <c r="G118" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="19">
+      <c r="H118">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>40742</v>
       </c>
@@ -3158,8 +3576,11 @@
       <c r="G119" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>40742</v>
       </c>
@@ -3179,8 +3600,11 @@
       <c r="G120" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>40743</v>
       </c>
@@ -3200,8 +3624,11 @@
       <c r="G121" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>40743</v>
       </c>
@@ -3221,8 +3648,11 @@
       <c r="G122" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>40743</v>
       </c>
@@ -3242,8 +3672,11 @@
       <c r="G123" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>40743</v>
       </c>
@@ -3263,8 +3696,11 @@
       <c r="G124" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>40743</v>
       </c>
@@ -3284,8 +3720,11 @@
       <c r="G125" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="19">
+      <c r="H125">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>40744</v>
       </c>
@@ -3307,8 +3746,11 @@
       <c r="G126" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="19">
+      <c r="H126">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>40744</v>
       </c>
@@ -3330,8 +3772,11 @@
       <c r="G127" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="19">
+      <c r="H127">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>40744</v>
       </c>
@@ -3353,8 +3798,11 @@
       <c r="G128" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>40744</v>
       </c>
@@ -3374,8 +3822,11 @@
       <c r="G129" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="19">
+      <c r="H129">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>40744</v>
       </c>
@@ -3397,8 +3848,11 @@
       <c r="G130" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="19">
+      <c r="H130">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>40745</v>
       </c>
@@ -3420,8 +3874,11 @@
       <c r="G131" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="19">
+      <c r="H131">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>40745</v>
       </c>
@@ -3443,8 +3900,11 @@
       <c r="G132" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="19">
+      <c r="H132">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>40745</v>
       </c>
@@ -3466,8 +3926,11 @@
       <c r="G133" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="19">
+      <c r="H133">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>40745</v>
       </c>
@@ -3489,8 +3952,11 @@
       <c r="G134" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="19">
+      <c r="H134">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>40745</v>
       </c>
@@ -3512,8 +3978,11 @@
       <c r="G135" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="19">
+      <c r="H135">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>40746</v>
       </c>
@@ -3535,8 +4004,11 @@
       <c r="G136" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="19">
+      <c r="H136">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>40746</v>
       </c>
@@ -3558,8 +4030,11 @@
       <c r="G137" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="19">
+      <c r="H137">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>40746</v>
       </c>
@@ -3581,8 +4056,11 @@
       <c r="G138" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="19">
+      <c r="H138">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>40746</v>
       </c>
@@ -3604,8 +4082,11 @@
       <c r="G139" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="19">
+      <c r="H139">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>40746</v>
       </c>
@@ -3627,8 +4108,11 @@
       <c r="G140" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>40747</v>
       </c>
@@ -3648,8 +4132,11 @@
       <c r="G141" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>40747</v>
       </c>
@@ -3669,8 +4156,11 @@
       <c r="G142" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>40747</v>
       </c>
@@ -3690,8 +4180,11 @@
       <c r="G143" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>40747</v>
       </c>
@@ -3711,8 +4204,11 @@
       <c r="G144" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>40747</v>
       </c>
@@ -3732,8 +4228,11 @@
       <c r="G145" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>40748</v>
       </c>
@@ -3755,8 +4254,11 @@
       <c r="G146" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="19">
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>40748</v>
       </c>
@@ -3778,8 +4280,11 @@
       <c r="G147" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="19">
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>40748</v>
       </c>
@@ -3801,8 +4306,11 @@
       <c r="G148" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>40748</v>
       </c>
@@ -3822,8 +4330,11 @@
       <c r="G149" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>40748</v>
       </c>
@@ -3843,8 +4354,11 @@
       <c r="G150" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>40749</v>
       </c>
@@ -3864,8 +4378,11 @@
       <c r="G151" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>40749</v>
       </c>
@@ -3885,8 +4402,11 @@
       <c r="G152" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>40749</v>
       </c>
@@ -3906,8 +4426,11 @@
       <c r="G153" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>40749</v>
       </c>
@@ -3927,8 +4450,11 @@
       <c r="G154" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="19">
+      <c r="H154">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>40749</v>
       </c>
@@ -3950,8 +4476,11 @@
       <c r="G155" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="19">
+      <c r="H155">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>40750</v>
       </c>
@@ -3973,8 +4502,11 @@
       <c r="G156" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="19">
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>40750</v>
       </c>
@@ -3996,8 +4528,11 @@
       <c r="G157" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="19">
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>40750</v>
       </c>
@@ -4019,8 +4554,11 @@
       <c r="G158" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="19">
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>40750</v>
       </c>
@@ -4042,8 +4580,11 @@
       <c r="G159" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>40750</v>
       </c>
@@ -4063,8 +4604,11 @@
       <c r="G160" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="19">
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>40751</v>
       </c>
@@ -4086,8 +4630,11 @@
       <c r="G161" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="19">
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>40751</v>
       </c>
@@ -4109,8 +4656,11 @@
       <c r="G162" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="19">
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>40751</v>
       </c>
@@ -4132,8 +4682,11 @@
       <c r="G163" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="19">
+      <c r="H163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>40751</v>
       </c>
@@ -4155,8 +4708,11 @@
       <c r="G164" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="19">
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>40751</v>
       </c>
@@ -4178,8 +4734,11 @@
       <c r="G165" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="19">
+      <c r="H165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>40752</v>
       </c>
@@ -4201,8 +4760,11 @@
       <c r="G166" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="19">
+      <c r="H166">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>40752</v>
       </c>
@@ -4224,8 +4786,11 @@
       <c r="G167" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="19">
+      <c r="H167">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>40752</v>
       </c>
@@ -4247,8 +4812,11 @@
       <c r="G168" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="19">
+      <c r="H168">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>40752</v>
       </c>
@@ -4270,8 +4838,11 @@
       <c r="G169" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="19">
+      <c r="H169">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>40752</v>
       </c>
@@ -4293,8 +4864,11 @@
       <c r="G170" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="19">
+      <c r="H170">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>40753</v>
       </c>
@@ -4316,8 +4890,11 @@
       <c r="G171" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="19">
+      <c r="H171">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>40753</v>
       </c>
@@ -4339,8 +4916,11 @@
       <c r="G172" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="19">
+      <c r="H172">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>40753</v>
       </c>
@@ -4362,8 +4942,11 @@
       <c r="G173" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="19">
+      <c r="H173">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>40753</v>
       </c>
@@ -4385,8 +4968,11 @@
       <c r="G174" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="19">
+      <c r="H174">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>40753</v>
       </c>
@@ -4408,8 +4994,11 @@
       <c r="G175" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="19">
+      <c r="H175">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>40754</v>
       </c>
@@ -4431,8 +5020,11 @@
       <c r="G176" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="19">
+      <c r="H176">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>40754</v>
       </c>
@@ -4454,8 +5046,11 @@
       <c r="G177" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="19">
+      <c r="H177">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>40754</v>
       </c>
@@ -4477,8 +5072,11 @@
       <c r="G178" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="19">
+      <c r="H178">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>40754</v>
       </c>
@@ -4500,8 +5098,11 @@
       <c r="G179" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="19">
+      <c r="H179">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>40754</v>
       </c>
@@ -4523,8 +5124,11 @@
       <c r="G180" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>40755</v>
       </c>
@@ -4544,8 +5148,11 @@
       <c r="G181" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>40755</v>
       </c>
@@ -4565,8 +5172,11 @@
       <c r="G182" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>40755</v>
       </c>
@@ -4586,8 +5196,11 @@
       <c r="G183" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="19">
+      <c r="H183">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>40755</v>
       </c>
@@ -4609,8 +5222,11 @@
       <c r="G184" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="19">
+      <c r="H184">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>40755</v>
       </c>
@@ -4632,8 +5248,11 @@
       <c r="G185" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="19">
+      <c r="H185">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>40756</v>
       </c>
@@ -4655,8 +5274,11 @@
       <c r="G186" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="19">
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>40756</v>
       </c>
@@ -4678,8 +5300,11 @@
       <c r="G187" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="19">
+      <c r="H187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>40756</v>
       </c>
@@ -4701,8 +5326,11 @@
       <c r="G188" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="19">
+      <c r="H188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>40756</v>
       </c>
@@ -4724,8 +5352,11 @@
       <c r="G189" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="19">
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>40756</v>
       </c>
@@ -4747,8 +5378,11 @@
       <c r="G190" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="19">
+      <c r="H190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>40757</v>
       </c>
@@ -4770,8 +5404,11 @@
       <c r="G191" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="19">
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>40757</v>
       </c>
@@ -4793,8 +5430,11 @@
       <c r="G192" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="19">
+      <c r="H192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>40757</v>
       </c>
@@ -4816,8 +5456,11 @@
       <c r="G193" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="19">
+      <c r="H193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>40757</v>
       </c>
@@ -4839,8 +5482,11 @@
       <c r="G194" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="19">
+      <c r="H194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>40757</v>
       </c>
@@ -4862,8 +5508,11 @@
       <c r="G195" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="19">
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>40758</v>
       </c>
@@ -4885,8 +5534,11 @@
       <c r="G196" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="19">
+      <c r="H196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>40758</v>
       </c>
@@ -4908,8 +5560,11 @@
       <c r="G197" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" ht="19">
+      <c r="H197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>40758</v>
       </c>
@@ -4931,8 +5586,11 @@
       <c r="G198" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" ht="19">
+      <c r="H198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>40758</v>
       </c>
@@ -4954,8 +5612,11 @@
       <c r="G199" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="19">
+      <c r="H199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>40758</v>
       </c>
@@ -4977,8 +5638,11 @@
       <c r="G200" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" ht="19">
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>40759</v>
       </c>
@@ -5000,8 +5664,11 @@
       <c r="G201" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" ht="19">
+      <c r="H201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>40759</v>
       </c>
@@ -5023,8 +5690,11 @@
       <c r="G202" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" ht="19">
+      <c r="H202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>40759</v>
       </c>
@@ -5046,8 +5716,11 @@
       <c r="G203" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" ht="19">
+      <c r="H203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>40759</v>
       </c>
@@ -5069,8 +5742,11 @@
       <c r="G204" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" ht="19">
+      <c r="H204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>40759</v>
       </c>
@@ -5092,8 +5768,11 @@
       <c r="G205" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" ht="19">
+      <c r="H205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>40760</v>
       </c>
@@ -5115,8 +5794,11 @@
       <c r="G206" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="19">
+      <c r="H206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>40760</v>
       </c>
@@ -5138,8 +5820,11 @@
       <c r="G207" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" ht="19">
+      <c r="H207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>40760</v>
       </c>
@@ -5161,8 +5846,11 @@
       <c r="G208" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>40760</v>
       </c>
@@ -5182,8 +5870,11 @@
       <c r="G209" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>40760</v>
       </c>
@@ -5203,8 +5894,11 @@
       <c r="G210" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" ht="19">
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>40761</v>
       </c>
@@ -5226,8 +5920,11 @@
       <c r="G211" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" ht="19">
+      <c r="H211">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>40761</v>
       </c>
@@ -5249,8 +5946,11 @@
       <c r="G212" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" ht="19">
+      <c r="H212">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>40761</v>
       </c>
@@ -5272,8 +5972,11 @@
       <c r="G213" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H213">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>40761</v>
       </c>
@@ -5293,8 +5996,11 @@
       <c r="G214" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="H214">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>40761</v>
       </c>
@@ -5314,8 +6020,11 @@
       <c r="G215" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>40762</v>
       </c>
@@ -5335,8 +6044,11 @@
       <c r="G216" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="H216">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>40762</v>
       </c>
@@ -5356,8 +6068,11 @@
       <c r="G217" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="H217">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>40762</v>
       </c>
@@ -5377,8 +6092,11 @@
       <c r="G218" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="H218">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>40762</v>
       </c>
@@ -5398,8 +6116,11 @@
       <c r="G219" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="H219">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>40762</v>
       </c>
@@ -5418,25 +6139,1032 @@
       <c r="F220" s="2"/>
       <c r="G220" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H231">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="232" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H232">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="233" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H233">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="234" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H234">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="235" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H235">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="236" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H236">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="237" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H237">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="238" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H238">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="239" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H239">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="240" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H240">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="241" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H241">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="242" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H242">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="243" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H243">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="244" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H244">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="245" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H245">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="246" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H246">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="247" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H247">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="248" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H248">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="249" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H249">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="250" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H250">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="251" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H256">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="257" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H257">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="258" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H258">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="259" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H259">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="260" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H260">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="261" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H261">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="262" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H262">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="263" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H263">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="264" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H264">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="265" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H265">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="266" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H270">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:E220">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="st1">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="st1">
       <formula>NOT(ISERROR(SEARCH("st1",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="E18" sqref="E17:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="6">
+        <v>40716</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>40717</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>40718</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>40719</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>40720</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>40721</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>40722</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>40723</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>40724</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>40725</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>40726</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="6">
+        <v>40727</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
+        <v>40728</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="6">
+        <v>40729</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="6">
+        <v>40730</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="6">
+        <v>40731</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
+        <v>40732</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="6">
+        <v>40733</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="6">
+        <v>40734</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
+        <v>40735</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>40736</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <v>40737</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="6">
+        <v>40738</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="6">
+        <v>40739</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
+        <v>40740</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="6">
+        <v>40741</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="6">
+        <v>40742</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="6">
+        <v>40743</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="6">
+        <v>40744</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="6">
+        <v>40745</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="6">
+        <v>40746</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
+        <v>40747</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
+        <v>40748</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="6">
+        <v>40749</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="6">
+        <v>40750</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="6">
+        <v>40751</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="6">
+        <v>40752</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="6">
+        <v>40753</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
+        <v>40754</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="6">
+        <v>40755</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="6">
+        <v>40756</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="6">
+        <v>40757</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="6">
+        <v>40758</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="6">
+        <v>40759</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="6">
+        <v>40760</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="6">
+        <v>40761</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="6">
+        <v>40762</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="6">
+        <v>40763</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="6">
+        <v>40764</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="6">
+        <v>40765</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="6">
+        <v>40766</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="6">
+        <v>40767</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="6">
+        <v>40768</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="6">
+        <v>40769</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="6">
+        <v>40770</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="6">
+        <v>40771</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="6">
+        <v>40772</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="6">
+        <v>40773</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="6">
+        <v>40774</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="6">
+        <v>40775</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="6">
+        <v>40776</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="6">
+        <v>40777</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="6">
+        <v>40778</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B2:C64">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="18">
   <si>
     <t>st1</t>
   </si>
@@ -88,12 +88,16 @@
     <t>https://twitter.com/unkaitterbot</t>
   </si>
   <si>
-    <t>機械学習器の結果</t>
-    <rPh sb="0" eb="5">
-      <t>キカイガクシュウキ</t>
+    <t>ML23時</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケッカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ML17時</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,27 +178,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6424,26 +6408,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E18" sqref="E17:E18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>40716</v>
       </c>
@@ -6453,11 +6440,14 @@
       <c r="C2">
         <v>0.1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>40717</v>
       </c>
@@ -6467,8 +6457,11 @@
       <c r="C3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>40718</v>
       </c>
@@ -6478,8 +6471,11 @@
       <c r="C4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>40719</v>
       </c>
@@ -6489,8 +6485,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>40720</v>
       </c>
@@ -6500,8 +6499,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>40721</v>
       </c>
@@ -6511,8 +6513,11 @@
       <c r="C7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>40722</v>
       </c>
@@ -6522,8 +6527,11 @@
       <c r="C8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>40723</v>
       </c>
@@ -6533,8 +6541,11 @@
       <c r="C9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>40724</v>
       </c>
@@ -6544,8 +6555,11 @@
       <c r="C10">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>40725</v>
       </c>
@@ -6555,8 +6569,11 @@
       <c r="C11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>40726</v>
       </c>
@@ -6566,8 +6583,11 @@
       <c r="C12">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>40727</v>
       </c>
@@ -6577,8 +6597,11 @@
       <c r="C13">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>40728</v>
       </c>
@@ -6588,8 +6611,11 @@
       <c r="C14">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>40729</v>
       </c>
@@ -6599,8 +6625,11 @@
       <c r="C15">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>40730</v>
       </c>
@@ -6610,8 +6639,11 @@
       <c r="C16">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>40731</v>
       </c>
@@ -6621,8 +6653,11 @@
       <c r="C17">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>40732</v>
       </c>
@@ -6632,8 +6667,11 @@
       <c r="C18">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>40733</v>
       </c>
@@ -6643,8 +6681,11 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>40734</v>
       </c>
@@ -6654,8 +6695,11 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>40735</v>
       </c>
@@ -6665,8 +6709,11 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>40736</v>
       </c>
@@ -6676,8 +6723,11 @@
       <c r="C22">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>40737</v>
       </c>
@@ -6687,8 +6737,11 @@
       <c r="C23">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>40738</v>
       </c>
@@ -6698,8 +6751,11 @@
       <c r="C24">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>40739</v>
       </c>
@@ -6709,8 +6765,11 @@
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>40740</v>
       </c>
@@ -6720,8 +6779,11 @@
       <c r="C26">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>40741</v>
       </c>
@@ -6731,8 +6793,11 @@
       <c r="C27">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>40742</v>
       </c>
@@ -6742,8 +6807,11 @@
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>40743</v>
       </c>
@@ -6753,8 +6821,11 @@
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>40744</v>
       </c>
@@ -6764,8 +6835,11 @@
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>40745</v>
       </c>
@@ -6775,8 +6849,11 @@
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>40746</v>
       </c>
@@ -6786,8 +6863,11 @@
       <c r="C32">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>40747</v>
       </c>
@@ -6797,8 +6877,11 @@
       <c r="C33">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>40748</v>
       </c>
@@ -6808,8 +6891,11 @@
       <c r="C34">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>40749</v>
       </c>
@@ -6819,8 +6905,11 @@
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>40750</v>
       </c>
@@ -6830,8 +6919,11 @@
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>40751</v>
       </c>
@@ -6841,8 +6933,11 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>40752</v>
       </c>
@@ -6852,8 +6947,11 @@
       <c r="C38">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>40753</v>
       </c>
@@ -6863,8 +6961,11 @@
       <c r="C39">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>40754</v>
       </c>
@@ -6874,8 +6975,11 @@
       <c r="C40">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>40755</v>
       </c>
@@ -6885,8 +6989,11 @@
       <c r="C41">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>40756</v>
       </c>
@@ -6896,8 +7003,11 @@
       <c r="C42">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>40757</v>
       </c>
@@ -6907,8 +7017,11 @@
       <c r="C43">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>40758</v>
       </c>
@@ -6918,8 +7031,11 @@
       <c r="C44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D44">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>40759</v>
       </c>
@@ -6929,8 +7045,11 @@
       <c r="C45">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D45">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>40760</v>
       </c>
@@ -6940,8 +7059,11 @@
       <c r="C46">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>40761</v>
       </c>
@@ -6951,8 +7073,11 @@
       <c r="C47">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>40762</v>
       </c>
@@ -6962,8 +7087,11 @@
       <c r="C48">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>40763</v>
       </c>
@@ -6973,8 +7101,11 @@
       <c r="C49">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D49">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>40764</v>
       </c>
@@ -6984,8 +7115,11 @@
       <c r="C50">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D50">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>40765</v>
       </c>
@@ -6995,8 +7129,11 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>40766</v>
       </c>
@@ -7006,8 +7143,11 @@
       <c r="C52">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D52">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>40767</v>
       </c>
@@ -7017,8 +7157,11 @@
       <c r="C53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>40768</v>
       </c>
@@ -7028,8 +7171,11 @@
       <c r="C54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>40769</v>
       </c>
@@ -7039,8 +7185,11 @@
       <c r="C55">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>40770</v>
       </c>
@@ -7050,8 +7199,11 @@
       <c r="C56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D56">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>40771</v>
       </c>
@@ -7061,8 +7213,11 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D57">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>40772</v>
       </c>
@@ -7072,8 +7227,11 @@
       <c r="C58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D58">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>40773</v>
       </c>
@@ -7083,8 +7241,11 @@
       <c r="C59">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D59">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>40774</v>
       </c>
@@ -7094,8 +7255,11 @@
       <c r="C60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>40775</v>
       </c>
@@ -7105,8 +7269,11 @@
       <c r="C61">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D61">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <v>40776</v>
       </c>
@@ -7116,8 +7283,11 @@
       <c r="C62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>40777</v>
       </c>
@@ -7127,8 +7297,11 @@
       <c r="C63">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D63">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>40778</v>
       </c>
@@ -7138,6 +7311,9 @@
       <c r="C64">
         <v>0</v>
       </c>
+      <c r="D64">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
@@ -7153,7 +7329,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B2:C64">
+  <conditionalFormatting sqref="B2:D64">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morishita/Dropbox/study_share/cloud_Aso/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\study_share\cloud_Aso\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="460" windowWidth="14080" windowHeight="14740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="435" yWindow="465" windowWidth="13320" windowHeight="14100" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="result.csv" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="34">
   <si>
     <t>st1</t>
   </si>
@@ -101,12 +101,150 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>熊本を使った</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いい感じの雲海が出たらしいFrom浅川さん</t>
+    <rPh sb="17" eb="19">
+      <t>アサカワサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強風でカメラが明後日方向を向く</t>
+    <rPh sb="0" eb="2">
+      <t>キョウフウデ</t>
+    </rPh>
+    <rPh sb="7" eb="12">
+      <t>アサッテホウコウヲ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ムク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄く出て感じもする</t>
+    <rPh sb="0" eb="1">
+      <t>ウスク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デテカンジモスル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>厚みは薄いけど</t>
+    <rPh sb="0" eb="1">
+      <t>アツミハウスイケド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄い上に高いところまで薄く霞がかかってる</t>
+    <rPh sb="0" eb="1">
+      <t>ウスイウエニ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカイトコロマデカスミガカカッテル</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウスク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>密度が低い。高さはよし。</t>
+    <rPh sb="0" eb="2">
+      <t>ミツドガウスイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒクイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タカサハヨシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視程悪し</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シカイワルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄いし、見事ではない</t>
+    <rPh sb="0" eb="1">
+      <t>ウスイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミゴトデハナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>早朝に薄いけど出ていた</t>
+    <rPh sb="0" eb="2">
+      <t>ソウチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウスイケド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>デテイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半分の平地が雲に隠れた</t>
+    <rPh sb="0" eb="2">
+      <t>ハンブンノヘイチガ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クモニカクレタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>惜しい感じだ</t>
+    <rPh sb="0" eb="1">
+      <t>オシイカンジダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿蘇に濃霧警報.good.</t>
+    <rPh sb="0" eb="2">
+      <t>アソニノウムケイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +283,15 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -174,6 +321,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -204,6 +355,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -537,12 +691,12 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>40719</v>
       </c>
@@ -568,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>40719</v>
       </c>
@@ -594,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40719</v>
       </c>
@@ -620,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40719</v>
       </c>
@@ -646,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40719</v>
       </c>
@@ -672,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40720</v>
       </c>
@@ -698,7 +852,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40720</v>
       </c>
@@ -724,7 +878,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40720</v>
       </c>
@@ -750,7 +904,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40720</v>
       </c>
@@ -776,7 +930,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40720</v>
       </c>
@@ -802,7 +956,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40721</v>
       </c>
@@ -828,7 +982,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40721</v>
       </c>
@@ -854,7 +1008,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40721</v>
       </c>
@@ -880,7 +1034,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40721</v>
       </c>
@@ -906,7 +1060,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40721</v>
       </c>
@@ -932,7 +1086,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40722</v>
       </c>
@@ -958,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40722</v>
       </c>
@@ -984,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40722</v>
       </c>
@@ -1010,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40722</v>
       </c>
@@ -1036,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40722</v>
       </c>
@@ -1062,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40723</v>
       </c>
@@ -1088,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40723</v>
       </c>
@@ -1114,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40723</v>
       </c>
@@ -1140,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40723</v>
       </c>
@@ -1166,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40723</v>
       </c>
@@ -1192,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40724</v>
       </c>
@@ -1218,7 +1372,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40724</v>
       </c>
@@ -1244,7 +1398,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40724</v>
       </c>
@@ -1270,7 +1424,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40724</v>
       </c>
@@ -1296,7 +1450,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40724</v>
       </c>
@@ -1322,7 +1476,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40725</v>
       </c>
@@ -1348,7 +1502,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40725</v>
       </c>
@@ -1374,7 +1528,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40725</v>
       </c>
@@ -1400,7 +1554,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40725</v>
       </c>
@@ -1426,7 +1580,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40725</v>
       </c>
@@ -1452,7 +1606,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40726</v>
       </c>
@@ -1478,7 +1632,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40726</v>
       </c>
@@ -1504,7 +1658,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40726</v>
       </c>
@@ -1530,7 +1684,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40726</v>
       </c>
@@ -1556,7 +1710,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40726</v>
       </c>
@@ -1582,7 +1736,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40727</v>
       </c>
@@ -1608,7 +1762,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40727</v>
       </c>
@@ -1634,7 +1788,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40727</v>
       </c>
@@ -1660,7 +1814,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40727</v>
       </c>
@@ -1686,7 +1840,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40727</v>
       </c>
@@ -1712,7 +1866,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40728</v>
       </c>
@@ -1738,7 +1892,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40728</v>
       </c>
@@ -1764,7 +1918,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40728</v>
       </c>
@@ -1790,7 +1944,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40728</v>
       </c>
@@ -1816,7 +1970,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40728</v>
       </c>
@@ -1842,7 +1996,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40729</v>
       </c>
@@ -1868,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40729</v>
       </c>
@@ -1894,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40729</v>
       </c>
@@ -1918,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40729</v>
       </c>
@@ -1942,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40729</v>
       </c>
@@ -1966,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40730</v>
       </c>
@@ -1992,7 +2146,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40730</v>
       </c>
@@ -2018,7 +2172,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40730</v>
       </c>
@@ -2044,7 +2198,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40730</v>
       </c>
@@ -2070,7 +2224,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40730</v>
       </c>
@@ -2096,7 +2250,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40731</v>
       </c>
@@ -2120,7 +2274,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40731</v>
       </c>
@@ -2144,7 +2298,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40731</v>
       </c>
@@ -2168,7 +2322,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40731</v>
       </c>
@@ -2192,7 +2346,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40731</v>
       </c>
@@ -2216,7 +2370,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40732</v>
       </c>
@@ -2240,7 +2394,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40732</v>
       </c>
@@ -2264,7 +2418,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40732</v>
       </c>
@@ -2288,7 +2442,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40732</v>
       </c>
@@ -2312,7 +2466,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40732</v>
       </c>
@@ -2336,7 +2490,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>40733</v>
       </c>
@@ -2362,7 +2516,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>40733</v>
       </c>
@@ -2388,7 +2542,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>40733</v>
       </c>
@@ -2412,7 +2566,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>40733</v>
       </c>
@@ -2436,7 +2590,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>40733</v>
       </c>
@@ -2460,7 +2614,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>40734</v>
       </c>
@@ -2484,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>40734</v>
       </c>
@@ -2508,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>40734</v>
       </c>
@@ -2534,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>40734</v>
       </c>
@@ -2560,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>40734</v>
       </c>
@@ -2586,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>40735</v>
       </c>
@@ -2610,7 +2764,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>40735</v>
       </c>
@@ -2636,7 +2790,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>40735</v>
       </c>
@@ -2660,7 +2814,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>40735</v>
       </c>
@@ -2684,7 +2838,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>40735</v>
       </c>
@@ -2708,7 +2862,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>40736</v>
       </c>
@@ -2734,7 +2888,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>40736</v>
       </c>
@@ -2760,7 +2914,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>40736</v>
       </c>
@@ -2786,7 +2940,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>40736</v>
       </c>
@@ -2812,7 +2966,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>40736</v>
       </c>
@@ -2838,7 +2992,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>40737</v>
       </c>
@@ -2864,7 +3018,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>40737</v>
       </c>
@@ -2888,7 +3042,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>40737</v>
       </c>
@@ -2912,7 +3066,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>40737</v>
       </c>
@@ -2938,7 +3092,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>40737</v>
       </c>
@@ -2962,7 +3116,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>40738</v>
       </c>
@@ -2986,7 +3140,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>40738</v>
       </c>
@@ -3010,7 +3164,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>40738</v>
       </c>
@@ -3034,7 +3188,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>40738</v>
       </c>
@@ -3058,7 +3212,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>40738</v>
       </c>
@@ -3082,7 +3236,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>40739</v>
       </c>
@@ -3106,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>40739</v>
       </c>
@@ -3130,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>40739</v>
       </c>
@@ -3156,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>40739</v>
       </c>
@@ -3182,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>40739</v>
       </c>
@@ -3208,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>40740</v>
       </c>
@@ -3234,7 +3388,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>40740</v>
       </c>
@@ -3260,7 +3414,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>40740</v>
       </c>
@@ -3286,7 +3440,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>40740</v>
       </c>
@@ -3312,7 +3466,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>40740</v>
       </c>
@@ -3338,7 +3492,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>40741</v>
       </c>
@@ -3364,7 +3518,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>40741</v>
       </c>
@@ -3388,7 +3542,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>40741</v>
       </c>
@@ -3412,7 +3566,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>40741</v>
       </c>
@@ -3436,7 +3590,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>40741</v>
       </c>
@@ -3460,7 +3614,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>40742</v>
       </c>
@@ -3486,7 +3640,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>40742</v>
       </c>
@@ -3512,7 +3666,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>40742</v>
       </c>
@@ -3538,7 +3692,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>40742</v>
       </c>
@@ -3564,7 +3718,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>40742</v>
       </c>
@@ -3588,7 +3742,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>40743</v>
       </c>
@@ -3612,7 +3766,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>40743</v>
       </c>
@@ -3636,7 +3790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>40743</v>
       </c>
@@ -3660,7 +3814,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>40743</v>
       </c>
@@ -3684,7 +3838,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>40743</v>
       </c>
@@ -3708,7 +3862,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>40744</v>
       </c>
@@ -3734,7 +3888,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>40744</v>
       </c>
@@ -3760,7 +3914,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>40744</v>
       </c>
@@ -3786,7 +3940,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>40744</v>
       </c>
@@ -3810,7 +3964,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>40744</v>
       </c>
@@ -3836,7 +3990,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>40745</v>
       </c>
@@ -3862,7 +4016,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>40745</v>
       </c>
@@ -3888,7 +4042,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>40745</v>
       </c>
@@ -3914,7 +4068,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>40745</v>
       </c>
@@ -3940,7 +4094,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>40745</v>
       </c>
@@ -3966,7 +4120,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>40746</v>
       </c>
@@ -3992,7 +4146,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>40746</v>
       </c>
@@ -4018,7 +4172,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>40746</v>
       </c>
@@ -4044,7 +4198,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>40746</v>
       </c>
@@ -4070,7 +4224,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>40746</v>
       </c>
@@ -4096,7 +4250,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>40747</v>
       </c>
@@ -4120,7 +4274,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>40747</v>
       </c>
@@ -4144,7 +4298,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>40747</v>
       </c>
@@ -4168,7 +4322,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>40747</v>
       </c>
@@ -4192,7 +4346,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>40747</v>
       </c>
@@ -4216,7 +4370,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>40748</v>
       </c>
@@ -4242,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>40748</v>
       </c>
@@ -4268,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>40748</v>
       </c>
@@ -4294,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>40748</v>
       </c>
@@ -4318,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>40748</v>
       </c>
@@ -4342,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>40749</v>
       </c>
@@ -4366,7 +4520,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>40749</v>
       </c>
@@ -4390,7 +4544,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>40749</v>
       </c>
@@ -4414,7 +4568,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>40749</v>
       </c>
@@ -4438,7 +4592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>40749</v>
       </c>
@@ -4464,7 +4618,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>40750</v>
       </c>
@@ -4490,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>40750</v>
       </c>
@@ -4516,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>40750</v>
       </c>
@@ -4542,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>40750</v>
       </c>
@@ -4568,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>40750</v>
       </c>
@@ -4592,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>40751</v>
       </c>
@@ -4618,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>40751</v>
       </c>
@@ -4644,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>40751</v>
       </c>
@@ -4670,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>40751</v>
       </c>
@@ -4696,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>40751</v>
       </c>
@@ -4722,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>40752</v>
       </c>
@@ -4748,7 +4902,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>40752</v>
       </c>
@@ -4774,7 +4928,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>40752</v>
       </c>
@@ -4800,7 +4954,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>40752</v>
       </c>
@@ -4826,7 +4980,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>40752</v>
       </c>
@@ -4852,7 +5006,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>40753</v>
       </c>
@@ -4878,7 +5032,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>40753</v>
       </c>
@@ -4904,7 +5058,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>40753</v>
       </c>
@@ -4930,7 +5084,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>40753</v>
       </c>
@@ -4956,7 +5110,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>40753</v>
       </c>
@@ -4982,7 +5136,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>40754</v>
       </c>
@@ -5008,7 +5162,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>40754</v>
       </c>
@@ -5034,7 +5188,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>40754</v>
       </c>
@@ -5060,7 +5214,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>40754</v>
       </c>
@@ -5086,7 +5240,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>40754</v>
       </c>
@@ -5112,7 +5266,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>40755</v>
       </c>
@@ -5136,7 +5290,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>40755</v>
       </c>
@@ -5160,7 +5314,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>40755</v>
       </c>
@@ -5184,7 +5338,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>40755</v>
       </c>
@@ -5210,7 +5364,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>40755</v>
       </c>
@@ -5236,7 +5390,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>40756</v>
       </c>
@@ -5262,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>40756</v>
       </c>
@@ -5288,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>40756</v>
       </c>
@@ -5314,7 +5468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>40756</v>
       </c>
@@ -5340,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>40756</v>
       </c>
@@ -5366,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>40757</v>
       </c>
@@ -5392,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>40757</v>
       </c>
@@ -5418,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>40757</v>
       </c>
@@ -5444,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>40757</v>
       </c>
@@ -5470,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>40757</v>
       </c>
@@ -5496,7 +5650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>40758</v>
       </c>
@@ -5522,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>40758</v>
       </c>
@@ -5548,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>40758</v>
       </c>
@@ -5574,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>40758</v>
       </c>
@@ -5600,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>40758</v>
       </c>
@@ -5626,7 +5780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>40759</v>
       </c>
@@ -5652,7 +5806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>40759</v>
       </c>
@@ -5678,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>40759</v>
       </c>
@@ -5704,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>40759</v>
       </c>
@@ -5730,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>40759</v>
       </c>
@@ -5756,7 +5910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>40760</v>
       </c>
@@ -5782,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>40760</v>
       </c>
@@ -5808,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>40760</v>
       </c>
@@ -5834,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>40760</v>
       </c>
@@ -5858,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>40760</v>
       </c>
@@ -5882,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>40761</v>
       </c>
@@ -5908,7 +6062,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>40761</v>
       </c>
@@ -5934,7 +6088,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>40761</v>
       </c>
@@ -5960,7 +6114,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>40761</v>
       </c>
@@ -5984,7 +6138,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>40761</v>
       </c>
@@ -6008,7 +6162,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>40762</v>
       </c>
@@ -6032,7 +6186,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>40762</v>
       </c>
@@ -6056,7 +6210,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>40762</v>
       </c>
@@ -6080,7 +6234,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>40762</v>
       </c>
@@ -6104,7 +6258,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>40762</v>
       </c>
@@ -6408,13 +6562,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="106" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
@@ -6426,6 +6584,9 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="F1" t="s">
         <v>14</v>
       </c>
@@ -6443,6 +6604,9 @@
       <c r="D2">
         <v>0.3</v>
       </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
@@ -6460,6 +6624,9 @@
       <c r="D3">
         <v>0.1</v>
       </c>
+      <c r="E3" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
@@ -6474,6 +6641,9 @@
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="E4" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
@@ -6488,6 +6658,9 @@
       <c r="D5">
         <v>0.2</v>
       </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
@@ -6502,6 +6675,9 @@
       <c r="D6">
         <v>0</v>
       </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
@@ -6516,6 +6692,9 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
@@ -6530,6 +6709,9 @@
       <c r="D8">
         <v>0.4</v>
       </c>
+      <c r="E8" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
@@ -6544,6 +6726,9 @@
       <c r="D9">
         <v>0.1</v>
       </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
@@ -6558,6 +6743,9 @@
       <c r="D10">
         <v>0.1</v>
       </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
@@ -6572,6 +6760,9 @@
       <c r="D11">
         <v>0.8</v>
       </c>
+      <c r="E11" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
@@ -6586,6 +6777,9 @@
       <c r="D12">
         <v>0.3</v>
       </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
@@ -6600,6 +6794,9 @@
       <c r="D13">
         <v>0.1</v>
       </c>
+      <c r="E13" s="8">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
@@ -6614,6 +6811,9 @@
       <c r="D14">
         <v>0.1</v>
       </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
@@ -6628,6 +6828,9 @@
       <c r="D15">
         <v>0.1</v>
       </c>
+      <c r="E15" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
@@ -6642,8 +6845,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>40731</v>
       </c>
@@ -6656,8 +6862,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>40732</v>
       </c>
@@ -6670,8 +6879,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>40733</v>
       </c>
@@ -6684,8 +6896,11 @@
       <c r="D19">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>40734</v>
       </c>
@@ -6698,8 +6913,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>40735</v>
       </c>
@@ -6712,8 +6930,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>40736</v>
       </c>
@@ -6726,8 +6947,11 @@
       <c r="D22">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>40737</v>
       </c>
@@ -6740,8 +6964,11 @@
       <c r="D23">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>40738</v>
       </c>
@@ -6754,8 +6981,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>40739</v>
       </c>
@@ -6768,8 +6998,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>40740</v>
       </c>
@@ -6782,8 +7015,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>40741</v>
       </c>
@@ -6796,8 +7032,11 @@
       <c r="D27">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>40742</v>
       </c>
@@ -6810,8 +7049,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E28" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>40743</v>
       </c>
@@ -6824,8 +7066,11 @@
       <c r="D29">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E29" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>40744</v>
       </c>
@@ -6838,8 +7083,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E30" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>40745</v>
       </c>
@@ -6852,8 +7100,11 @@
       <c r="D31">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E31" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>40746</v>
       </c>
@@ -6866,8 +7117,11 @@
       <c r="D32">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E32" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>40747</v>
       </c>
@@ -6880,8 +7134,11 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E33" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>40748</v>
       </c>
@@ -6894,8 +7151,11 @@
       <c r="D34">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E34" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>40749</v>
       </c>
@@ -6908,8 +7168,11 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E35" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>40750</v>
       </c>
@@ -6922,8 +7185,11 @@
       <c r="D36">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E36" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>40751</v>
       </c>
@@ -6936,8 +7202,11 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>40752</v>
       </c>
@@ -6950,8 +7219,11 @@
       <c r="D38">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>40753</v>
       </c>
@@ -6964,8 +7236,11 @@
       <c r="D39">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>40754</v>
       </c>
@@ -6978,8 +7253,11 @@
       <c r="D40">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E40" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>40755</v>
       </c>
@@ -6992,8 +7270,11 @@
       <c r="D41">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E41" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>40756</v>
       </c>
@@ -7006,8 +7287,11 @@
       <c r="D42">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E42" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>40757</v>
       </c>
@@ -7020,8 +7304,11 @@
       <c r="D43">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E43" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>40758</v>
       </c>
@@ -7034,8 +7321,11 @@
       <c r="D44">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E44" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="6">
         <v>40759</v>
       </c>
@@ -7048,8 +7338,11 @@
       <c r="D45">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E45" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="6">
         <v>40760</v>
       </c>
@@ -7062,8 +7355,11 @@
       <c r="D46">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E46" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="6">
         <v>40761</v>
       </c>
@@ -7076,8 +7372,11 @@
       <c r="D47">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E47" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="6">
         <v>40762</v>
       </c>
@@ -7090,8 +7389,11 @@
       <c r="D48">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E48" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="6">
         <v>40763</v>
       </c>
@@ -7104,8 +7406,11 @@
       <c r="D49">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E49" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="6">
         <v>40764</v>
       </c>
@@ -7118,8 +7423,11 @@
       <c r="D50">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E50" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="6">
         <v>40765</v>
       </c>
@@ -7132,8 +7440,11 @@
       <c r="D51">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E51" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="6">
         <v>40766</v>
       </c>
@@ -7146,8 +7457,11 @@
       <c r="D52">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E52" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="6">
         <v>40767</v>
       </c>
@@ -7160,8 +7474,11 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="6">
         <v>40768</v>
       </c>
@@ -7174,8 +7491,11 @@
       <c r="D54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E54" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="6">
         <v>40769</v>
       </c>
@@ -7188,8 +7508,11 @@
       <c r="D55">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E55" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="6">
         <v>40770</v>
       </c>
@@ -7202,8 +7525,11 @@
       <c r="D56">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E56" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="6">
         <v>40771</v>
       </c>
@@ -7216,8 +7542,11 @@
       <c r="D57">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="6">
         <v>40772</v>
       </c>
@@ -7230,8 +7559,11 @@
       <c r="D58">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E58" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="6">
         <v>40773</v>
       </c>
@@ -7244,8 +7576,11 @@
       <c r="D59">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E59" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="6">
         <v>40774</v>
       </c>
@@ -7258,8 +7593,11 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E60" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="6">
         <v>40775</v>
       </c>
@@ -7272,8 +7610,11 @@
       <c r="D61">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E61" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="6">
         <v>40776</v>
       </c>
@@ -7286,8 +7627,11 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E62" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="6">
         <v>40777</v>
       </c>
@@ -7300,8 +7644,11 @@
       <c r="D63">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E63" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="6">
         <v>40778</v>
       </c>
@@ -7314,22 +7661,744 @@
       <c r="D64">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="6"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="6"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="6"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="6"/>
+      <c r="E64" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="6">
+        <v>40779</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="6">
+        <v>40780</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="6">
+        <v>40781</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="6">
+        <v>40782</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="E68" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="6">
+        <v>40783</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="E69" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="6">
+        <v>40784</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="E70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="6">
+        <v>40785</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="E71" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="6">
+        <v>40786</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="E72" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="6">
+        <v>40787</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="E73" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="6">
+        <v>40788</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="E74" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="6">
+        <v>40789</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="E75" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="6">
+        <v>40790</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="E76" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="6">
+        <v>40791</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="E77" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="6">
+        <v>40792</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="E78" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="6">
+        <v>40793</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="E79" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="6">
+        <v>40794</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="E80" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="6">
+        <v>40795</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="E81" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="6">
+        <v>40796</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="E82" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="6">
+        <v>40797</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="E83" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="6">
+        <v>40798</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="E84" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="6">
+        <v>40799</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="E85" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="6">
+        <v>40800</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="E86" s="8">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="6">
+        <v>40801</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="E87" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="6">
+        <v>40802</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="E88" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="6">
+        <v>40803</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="E89" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="6">
+        <v>40804</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="E90" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="6">
+        <v>40805</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="E91" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="6">
+        <v>40806</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="E92" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="6">
+        <v>40807</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="E93" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="6">
+        <v>40808</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="E94" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="6">
+        <v>40809</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="E95" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="6">
+        <v>40810</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="E96" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="6">
+        <v>40811</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="E97" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="6">
+        <v>40812</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="E98" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="6">
+        <v>40813</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="E99" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="6">
+        <v>40814</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="E100" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="6">
+        <v>40815</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="E101" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="6">
+        <v>40816</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="6">
+        <v>40817</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="6">
+        <v>40818</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="6">
+        <v>40819</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="E105" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="6">
+        <v>40820</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="6">
+        <v>40821</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="6">
+        <v>40822</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="E108" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="6">
+        <v>40823</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="E109" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="6">
+        <v>40824</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="E110" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="6">
+        <v>40825</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="E111" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="6">
+        <v>40826</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="E112" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" s="6">
+        <v>40827</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="E113" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="6">
+        <v>40828</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="E114" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" s="6">
+        <v>40829</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="E115" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" s="6">
+        <v>40830</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="E116" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" s="6">
+        <v>40831</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="E117" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" s="6">
+        <v>40832</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="E118" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" s="6">
+        <v>40833</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="E119" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" s="6">
+        <v>40834</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="E120" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" s="6">
+        <v>40835</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="E121" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" s="6">
+        <v>40836</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="E122" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" s="6">
+        <v>40837</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="E123" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F123" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" s="6">
+        <v>40838</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="E124" s="8">
+        <v>0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" s="6">
+        <v>40839</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="E125" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:D64">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E64">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:E125">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
